--- a/tag-cn.xlsx
+++ b/tag-cn.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshengyang/Project/Sample/aigenerate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshengyang/Project/Sample/OpenAIData2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3488F7F5-6B54-A249-AD99-E257F257174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D4EB68-8E9F-9F40-BE41-7F03A767AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11560" yWindow="3500" windowWidth="36000" windowHeight="21460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$151</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -22,19 +25,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="334">
   <si>
-    <t>客户编号</t>
-  </si>
-  <si>
     <t>省</t>
   </si>
   <si>
-    <t>区</t>
-  </si>
-  <si>
     <t>Sales Rep 工号</t>
-  </si>
-  <si>
-    <t>日期</t>
   </si>
   <si>
     <t>细节描述1</t>
@@ -1023,6 +1017,18 @@
   </si>
   <si>
     <t>HasSalesProblem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1397,12 +1403,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
     <col min="6" max="6" width="110" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" customWidth="1"/>
     <col min="8" max="8" width="79.1640625" customWidth="1"/>
@@ -1413,352 +1422,352 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>20000001</v>
+        <v>20000008</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>20231009</v>
+        <v>20230908</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>20000002</v>
+        <v>20000010</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>20231114</v>
+        <v>20230908</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>20000002</v>
+        <v>20000009</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>20230925</v>
+        <v>20230911</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>20000002</v>
+        <v>20000010</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>20230922</v>
+        <v>20230913</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>20000003</v>
+        <v>20000012</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>20231116</v>
+        <v>20230913</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>20000003</v>
+        <v>20000022</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>20231012</v>
+        <v>20230913</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>20000004</v>
+        <v>20000036</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="E8">
-        <v>20230915</v>
+        <v>20230913</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>20000004</v>
+        <v>20000011</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>20231128</v>
+        <v>20230914</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>20000004</v>
+        <v>20000025</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>20231116</v>
+        <v>20230914</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1766,1014 +1775,1014 @@
         <v>20000004</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20231108</v>
+        <v>20230915</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20000004</v>
+        <v>20000015</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E12">
-        <v>20231031</v>
+        <v>20230915</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20000004</v>
+        <v>20000018</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E13">
-        <v>20231023</v>
+        <v>20230915</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20000004</v>
+        <v>20000026</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>20231011</v>
+        <v>20230915</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20000004</v>
+        <v>20000030</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>20230919</v>
+        <v>20230915</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20000005</v>
+        <v>20000004</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>20231025</v>
+        <v>20230919</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20000006</v>
+        <v>20000011</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>20231031</v>
+        <v>20230919</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20000006</v>
+        <v>20000015</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="E18">
-        <v>20230925</v>
+        <v>20230919</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20000007</v>
+        <v>20000028</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E19">
-        <v>20231113</v>
+        <v>20230919</v>
       </c>
       <c r="F19" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20000007</v>
+        <v>20000016</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>20231106</v>
+        <v>20230920</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>20000007</v>
+        <v>20000030</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>20231103</v>
+        <v>20230920</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>280</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>20000008</v>
+        <v>20000010</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E22">
-        <v>20231122</v>
+        <v>20230921</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20000008</v>
+        <v>20000014</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E23">
-        <v>20230908</v>
+        <v>20230921</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>20000009</v>
+        <v>20000017</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E24">
-        <v>20231128</v>
+        <v>20230921</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
         <v>14</v>
       </c>
-      <c r="H24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s">
-        <v>16</v>
-      </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>20000009</v>
+        <v>20000025</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>20231124</v>
+        <v>20230921</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>240</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
         <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>20000009</v>
+        <v>20000002</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>20231117</v>
+        <v>20230922</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>20000009</v>
+        <v>20000020</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>20231108</v>
+        <v>20230922</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>20000009</v>
+        <v>20000021</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>20231102</v>
+        <v>20230922</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>20000009</v>
+        <v>20000031</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>20231027</v>
+        <v>20230922</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>20000009</v>
+        <v>20000032</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>20231019</v>
+        <v>20230922</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>20000009</v>
+        <v>20000002</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>20231013</v>
+        <v>20230925</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
         <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>20000009</v>
+        <v>20000006</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E32">
-        <v>20230911</v>
+        <v>20230925</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>20000010</v>
+        <v>20000020</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E33">
-        <v>20231120</v>
+        <v>20230925</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>20000010</v>
+        <v>20000034</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E34">
-        <v>20231113</v>
+        <v>20230925</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>313</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
         <v>14</v>
       </c>
-      <c r="H34" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" t="s">
-        <v>16</v>
-      </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>20000010</v>
+        <v>20000019</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E35">
-        <v>20231103</v>
+        <v>20230926</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" t="s">
         <v>14</v>
       </c>
-      <c r="H35" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" t="s">
-        <v>16</v>
-      </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>20000010</v>
+        <v>20000027</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E36">
-        <v>20231023</v>
+        <v>20230926</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>20000010</v>
+        <v>20000029</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E37">
-        <v>20231007</v>
+        <v>20230926</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>20000010</v>
+        <v>20000011</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E38">
-        <v>20230921</v>
+        <v>20230928</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>20000010</v>
+        <v>20000024</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E39">
-        <v>20230913</v>
+        <v>20230928</v>
       </c>
       <c r="F39" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2781,2064 +2790,2064 @@
         <v>20000010</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E40">
-        <v>20230908</v>
+        <v>20231007</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>20000011</v>
+        <v>20000014</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>20231124</v>
+        <v>20231007</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>20000011</v>
+        <v>20000025</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>20231115</v>
+        <v>20231007</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>20000011</v>
+        <v>20000030</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E43">
-        <v>20231108</v>
+        <v>20231007</v>
       </c>
       <c r="F43" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="H43" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>20000011</v>
+        <v>20000019</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E44">
-        <v>20231025</v>
+        <v>20231008</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>20000011</v>
+        <v>20000024</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E45">
-        <v>20231018</v>
+        <v>20231008</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>20000011</v>
+        <v>20000026</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E46">
-        <v>20231013</v>
+        <v>20231008</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>20000011</v>
+        <v>20000001</v>
       </c>
       <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>20231009</v>
+      </c>
+      <c r="F47" t="s">
         <v>10</v>
       </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47">
-        <v>20230928</v>
-      </c>
-      <c r="F47" t="s">
-        <v>118</v>
-      </c>
       <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
         <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>119</v>
-      </c>
-      <c r="I47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>20000011</v>
+        <v>20000018</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E48">
-        <v>20230919</v>
+        <v>20231009</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>20000011</v>
+        <v>20000037</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E49">
-        <v>20230914</v>
+        <v>20231009</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>326</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>123</v>
+        <v>327</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K49" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>20000012</v>
+        <v>20000004</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E50">
-        <v>20231110</v>
+        <v>20231011</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>20000012</v>
+        <v>20000019</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="E51">
-        <v>20231026</v>
+        <v>20231011</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
         <v>14</v>
-      </c>
-      <c r="H51" t="s">
-        <v>127</v>
-      </c>
-      <c r="I51" t="s">
-        <v>22</v>
-      </c>
-      <c r="J51" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>20000012</v>
+        <v>20000034</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>20231110</v>
+        <v>20231011</v>
       </c>
       <c r="F52" t="s">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>20000012</v>
+        <v>20000003</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>20231012</v>
+      </c>
+      <c r="F53" t="s">
         <v>29</v>
       </c>
-      <c r="E53">
-        <v>20231018</v>
-      </c>
-      <c r="F53" t="s">
-        <v>130</v>
-      </c>
       <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s">
         <v>14</v>
       </c>
-      <c r="H53" t="s">
-        <v>131</v>
-      </c>
-      <c r="I53" t="s">
-        <v>22</v>
-      </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>20000012</v>
+        <v>20000022</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>20230913</v>
+        <v>20231012</v>
       </c>
       <c r="F54" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>20000013</v>
+        <v>20000029</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E55">
-        <v>20231116</v>
+        <v>20231012</v>
       </c>
       <c r="F55" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>20000013</v>
+        <v>20000009</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E56">
-        <v>20231110</v>
+        <v>20231013</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>20000013</v>
+        <v>20000011</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E57">
         <v>20231013</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>20000014</v>
+        <v>20000013</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>20231103</v>
+        <v>20231013</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>20000014</v>
+        <v>20000032</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>20231007</v>
+        <v>20231013</v>
       </c>
       <c r="F59" t="s">
-        <v>142</v>
+        <v>298</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>20000014</v>
+        <v>20000036</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="E60">
-        <v>20230921</v>
+        <v>20231013</v>
       </c>
       <c r="F60" t="s">
-        <v>144</v>
+        <v>322</v>
       </c>
       <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
         <v>14</v>
       </c>
-      <c r="H60" t="s">
-        <v>145</v>
-      </c>
-      <c r="I60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J60" t="s">
-        <v>22</v>
-      </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>20000015</v>
+        <v>20000026</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="E61">
-        <v>20231123</v>
+        <v>20231016</v>
       </c>
       <c r="F61" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>20000015</v>
+        <v>20000011</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="E62">
-        <v>20231109</v>
+        <v>20231018</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s">
         <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>151</v>
-      </c>
-      <c r="I62" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>20000015</v>
+        <v>20000012</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="E63">
-        <v>20231026</v>
+        <v>20231018</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>20000015</v>
+        <v>20000025</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="E64">
-        <v>20230919</v>
+        <v>20231018</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K64" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>20000015</v>
+        <v>20000031</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="E65">
-        <v>20230915</v>
+        <v>20231018</v>
       </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>20000016</v>
+        <v>20000009</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E66">
-        <v>20231122</v>
+        <v>20231019</v>
       </c>
       <c r="F66" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>20000016</v>
+        <v>20000023</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>20230920</v>
+        <v>20231020</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s">
         <v>14</v>
-      </c>
-      <c r="H67" t="s">
-        <v>163</v>
-      </c>
-      <c r="I67" t="s">
-        <v>16</v>
-      </c>
-      <c r="J67" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>20000017</v>
+        <v>20000035</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>20230921</v>
+        <v>20231020</v>
       </c>
       <c r="F68" t="s">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>20000018</v>
+        <v>20000004</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E69">
-        <v>20231124</v>
+        <v>20231023</v>
       </c>
       <c r="F69" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" t="s">
         <v>14</v>
-      </c>
-      <c r="H69" t="s">
-        <v>170</v>
-      </c>
-      <c r="I69" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>20000018</v>
+        <v>20000010</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E70">
-        <v>20231114</v>
+        <v>20231023</v>
       </c>
       <c r="F70" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J70" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>20000018</v>
+        <v>20000024</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E71">
-        <v>20231106</v>
+        <v>20231023</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K71" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>20000018</v>
+        <v>20000026</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E72">
-        <v>20231031</v>
+        <v>20231023</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K72" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>20000018</v>
+        <v>20000019</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E73">
-        <v>20231009</v>
+        <v>20231024</v>
       </c>
       <c r="F73" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>189</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" t="s">
         <v>14</v>
-      </c>
-      <c r="H73" t="s">
-        <v>178</v>
-      </c>
-      <c r="I73" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>20000018</v>
+        <v>20000005</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="E74">
-        <v>20230915</v>
+        <v>20231025</v>
       </c>
       <c r="F74" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s">
         <v>14</v>
       </c>
-      <c r="H74" t="s">
-        <v>180</v>
-      </c>
-      <c r="I74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" t="s">
-        <v>22</v>
-      </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>20000019</v>
+        <v>20000011</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E75">
-        <v>20231120</v>
+        <v>20231025</v>
       </c>
       <c r="F75" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H75" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="I75" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>20000019</v>
+        <v>20000030</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E76">
-        <v>20231114</v>
+        <v>20231025</v>
       </c>
       <c r="F76" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="H76" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>20000019</v>
+        <v>20000031</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E77">
-        <v>20231106</v>
+        <v>20231025</v>
       </c>
       <c r="F77" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>20000019</v>
+        <v>20000036</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E78">
-        <v>20231031</v>
+        <v>20231025</v>
       </c>
       <c r="F78" t="s">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>321</v>
+      </c>
+      <c r="I78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s">
         <v>14</v>
       </c>
-      <c r="H78" t="s">
-        <v>188</v>
-      </c>
-      <c r="I78" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" t="s">
-        <v>16</v>
-      </c>
       <c r="K78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>20000019</v>
+        <v>20000012</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>20231030</v>
+        <v>20231026</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="G79" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>20000019</v>
+        <v>20000015</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E80">
-        <v>20231024</v>
+        <v>20231026</v>
       </c>
       <c r="F80" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>20000019</v>
+        <v>20000032</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>20231011</v>
+        <v>20231026</v>
       </c>
       <c r="F81" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>20000019</v>
+        <v>20000033</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>20231008</v>
+        <v>20231026</v>
       </c>
       <c r="F82" t="s">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K82" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>20000019</v>
+        <v>20000009</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E83">
-        <v>20230926</v>
+        <v>20231027</v>
       </c>
       <c r="F83" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H83" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>20000020</v>
+        <v>20000025</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E84">
-        <v>20230925</v>
+        <v>20231027</v>
       </c>
       <c r="F84" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="G84" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H84" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K84" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>20000020</v>
+        <v>20000026</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E85">
-        <v>20230922</v>
+        <v>20231027</v>
       </c>
       <c r="F85" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H85" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>20000021</v>
+        <v>20000027</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E86">
-        <v>20230922</v>
+        <v>20231027</v>
       </c>
       <c r="F86" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J86" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>20000022</v>
+        <v>20000019</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="E87">
-        <v>20231116</v>
+        <v>20231030</v>
       </c>
       <c r="F87" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" t="s">
+        <v>187</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" t="s">
         <v>14</v>
-      </c>
-      <c r="H87" t="s">
-        <v>206</v>
-      </c>
-      <c r="I87" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>20000022</v>
+        <v>20000026</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E88">
-        <v>20231012</v>
+        <v>20231030</v>
       </c>
       <c r="F88" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>20000022</v>
+        <v>20000004</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E89">
-        <v>20230913</v>
+        <v>20231031</v>
       </c>
       <c r="F89" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>20000023</v>
+        <v>20000006</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E90">
-        <v>20231122</v>
+        <v>20231031</v>
       </c>
       <c r="F90" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="G90" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" t="s">
         <v>14</v>
-      </c>
-      <c r="H90" t="s">
-        <v>212</v>
-      </c>
-      <c r="I90" t="s">
-        <v>16</v>
-      </c>
-      <c r="J90" t="s">
-        <v>16</v>
-      </c>
-      <c r="K90" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>20000023</v>
+        <v>20000018</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="E91">
-        <v>20231020</v>
+        <v>20231031</v>
       </c>
       <c r="F91" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="G91" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>20000024</v>
+        <v>20000019</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E92">
-        <v>20231120</v>
+        <v>20231031</v>
       </c>
       <c r="F92" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="I92" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K92" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>20000024</v>
+        <v>20000030</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E93">
-        <v>20231115</v>
+        <v>20231101</v>
       </c>
       <c r="F93" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J93" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K93" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>20000024</v>
+        <v>20000009</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E94">
-        <v>20231109</v>
+        <v>20231102</v>
       </c>
       <c r="F94" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J94" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K94" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>20000024</v>
+        <v>20000031</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E95">
-        <v>20231023</v>
+        <v>20231102</v>
       </c>
       <c r="F95" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="I95" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J95" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K95" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>20000024</v>
+        <v>20000007</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E96">
-        <v>20231008</v>
+        <v>20231103</v>
       </c>
       <c r="F96" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" t="s">
         <v>14</v>
-      </c>
-      <c r="H96" t="s">
-        <v>223</v>
-      </c>
-      <c r="I96" t="s">
-        <v>22</v>
-      </c>
-      <c r="J96" t="s">
-        <v>22</v>
-      </c>
-      <c r="K96" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>20000024</v>
+        <v>20000010</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E97">
-        <v>20230928</v>
+        <v>20231103</v>
       </c>
       <c r="F97" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K97" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>20000025</v>
+        <v>20000014</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>20231130</v>
+        <v>20231103</v>
       </c>
       <c r="F98" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="G98" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4846,1857 +4855,1862 @@
         <v>20000025</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E99">
-        <v>20231124</v>
+        <v>20231103</v>
       </c>
       <c r="F99" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H99" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J99" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K99" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>20000025</v>
+        <v>20000007</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E100">
-        <v>20231116</v>
+        <v>20231106</v>
       </c>
       <c r="F100" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="G100" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" t="s">
+        <v>63</v>
+      </c>
+      <c r="I100" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" t="s">
         <v>14</v>
-      </c>
-      <c r="H100" t="s">
-        <v>231</v>
-      </c>
-      <c r="I100" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>20000025</v>
+        <v>20000018</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="D101" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E101">
-        <v>20231110</v>
+        <v>20231106</v>
       </c>
       <c r="F101" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="I101" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J101" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>20000025</v>
+        <v>20000019</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D102" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E102">
-        <v>20231103</v>
+        <v>20231106</v>
       </c>
       <c r="F102" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="G102" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K102" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>20000025</v>
+        <v>20000030</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E103">
-        <v>20231027</v>
+        <v>20231107</v>
       </c>
       <c r="F103" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="G103" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H103" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K103" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>20000025</v>
+        <v>20000004</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E104">
-        <v>20231018</v>
+        <v>20231108</v>
       </c>
       <c r="F104" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="I104" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K104" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>20000025</v>
+        <v>20000009</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E105">
-        <v>20231007</v>
+        <v>20231108</v>
       </c>
       <c r="F105" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K105" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>20000025</v>
+        <v>20000011</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E106">
-        <v>20230921</v>
+        <v>20231108</v>
       </c>
       <c r="F106" t="s">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>20000025</v>
+        <v>20000015</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E107">
-        <v>20230914</v>
+        <v>20231109</v>
       </c>
       <c r="F107" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="G107" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K107" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>20000026</v>
+        <v>20000024</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E108">
-        <v>20231116</v>
+        <v>20231109</v>
       </c>
       <c r="F108" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G108" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H108" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J108" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K108" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>20000026</v>
+        <v>20000033</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E109">
-        <v>20231030</v>
+        <v>20231109</v>
       </c>
       <c r="F109" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="I109" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J109" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>20000026</v>
+        <v>20000012</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E110">
-        <v>20231027</v>
+        <v>20231110</v>
       </c>
       <c r="F110" t="s">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="G110" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J110" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K110" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>20000026</v>
+        <v>20000012</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E111">
-        <v>20231023</v>
+        <v>20231110</v>
       </c>
       <c r="F111" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="G111" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H111" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="I111" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K111" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>20000026</v>
+        <v>20000013</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>20231016</v>
+        <v>20231110</v>
       </c>
       <c r="F112" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="G112" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="I112" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J112" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K112" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>20000026</v>
+        <v>20000025</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E113">
-        <v>20231008</v>
+        <v>20231110</v>
       </c>
       <c r="F113" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H113" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="I113" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K113" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>20000026</v>
+        <v>20000035</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>20230915</v>
+        <v>20231110</v>
       </c>
       <c r="F114" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="G114" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J114" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K114" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>20000027</v>
+        <v>20000036</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="E115">
-        <v>20231027</v>
+        <v>20231110</v>
       </c>
       <c r="F115" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="G115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="I115" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J115" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K115" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116">
-        <v>20000027</v>
+        <v>20000007</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E116">
-        <v>20230926</v>
+        <v>20231113</v>
       </c>
       <c r="F116" t="s">
-        <v>261</v>
+        <v>59</v>
       </c>
       <c r="G116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" t="s">
+        <v>60</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" t="s">
         <v>14</v>
-      </c>
-      <c r="H116" t="s">
-        <v>262</v>
-      </c>
-      <c r="I116" t="s">
-        <v>16</v>
-      </c>
-      <c r="J116" t="s">
-        <v>16</v>
-      </c>
-      <c r="K116" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117">
-        <v>20000028</v>
+        <v>20000010</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E117">
-        <v>20231114</v>
+        <v>20231113</v>
       </c>
       <c r="F117" t="s">
-        <v>264</v>
+        <v>91</v>
       </c>
       <c r="G117" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="I117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K117" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118">
-        <v>20000028</v>
+        <v>20000030</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E118">
-        <v>20230919</v>
+        <v>20231113</v>
       </c>
       <c r="F118" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G118" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J118" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K118" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119">
-        <v>20000029</v>
+        <v>20000002</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>20231012</v>
+        <v>20231114</v>
       </c>
       <c r="F119" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="I119" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K119" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120">
-        <v>20000029</v>
+        <v>20000018</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120" t="s">
+        <v>162</v>
+      </c>
+      <c r="E120">
+        <v>20231114</v>
+      </c>
+      <c r="F120" t="s">
         <v>168</v>
       </c>
-      <c r="D120" t="s">
-        <v>56</v>
-      </c>
-      <c r="E120">
-        <v>20230926</v>
-      </c>
-      <c r="F120" t="s">
-        <v>270</v>
-      </c>
       <c r="G120" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="I120" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121">
-        <v>20000030</v>
+        <v>20000019</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D121" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E121">
-        <v>20231122</v>
+        <v>20231114</v>
       </c>
       <c r="F121" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="G121" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="I121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J121" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K121" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122">
-        <v>20000030</v>
+        <v>20000028</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E122">
-        <v>20231113</v>
+        <v>20231114</v>
       </c>
       <c r="F122" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G122" t="s">
+        <v>62</v>
+      </c>
+      <c r="H122" t="s">
+        <v>262</v>
+      </c>
+      <c r="I122" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122" t="s">
         <v>14</v>
-      </c>
-      <c r="H122" t="s">
-        <v>275</v>
-      </c>
-      <c r="I122" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" t="s">
-        <v>16</v>
-      </c>
-      <c r="K122" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123">
-        <v>20000030</v>
+        <v>20000011</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E123">
-        <v>20231107</v>
+        <v>20231115</v>
       </c>
       <c r="F123" t="s">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="G123" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H123" t="s">
-        <v>277</v>
+        <v>105</v>
       </c>
       <c r="I123" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J123" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K123" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124">
-        <v>20000030</v>
+        <v>20000024</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E124">
-        <v>20231101</v>
+        <v>20231115</v>
       </c>
       <c r="F124" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G124" t="s">
+        <v>38</v>
+      </c>
+      <c r="H124" t="s">
+        <v>214</v>
+      </c>
+      <c r="I124" t="s">
+        <v>19</v>
+      </c>
+      <c r="J124" t="s">
         <v>14</v>
       </c>
-      <c r="H124" t="s">
-        <v>278</v>
-      </c>
-      <c r="I124" t="s">
-        <v>22</v>
-      </c>
-      <c r="J124" t="s">
-        <v>16</v>
-      </c>
       <c r="K124" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125">
-        <v>20000030</v>
+        <v>20000034</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D125" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E125">
-        <v>20231025</v>
+        <v>20231115</v>
       </c>
       <c r="F125" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="G125" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="I125" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J125" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K125" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126">
-        <v>20000030</v>
+        <v>20000003</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E126">
-        <v>20231007</v>
+        <v>20231116</v>
       </c>
       <c r="F126" t="s">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="G126" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="I126" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K126" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127">
-        <v>20000030</v>
+        <v>20000004</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E127">
-        <v>20230920</v>
+        <v>20231116</v>
       </c>
       <c r="F127" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>38</v>
       </c>
       <c r="H127" t="s">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="I127" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J127" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K127" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128">
-        <v>20000030</v>
+        <v>20000013</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E128">
-        <v>20230915</v>
+        <v>20231116</v>
       </c>
       <c r="F128" t="s">
-        <v>285</v>
+        <v>131</v>
       </c>
       <c r="G128" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="I128" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J128" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K128" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129">
-        <v>20000031</v>
+        <v>20000022</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E129">
-        <v>20231130</v>
+        <v>20231116</v>
       </c>
       <c r="F129" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="G129" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="I129" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J129" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K129" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130">
-        <v>20000031</v>
+        <v>20000025</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E130">
-        <v>20231121</v>
+        <v>20231116</v>
       </c>
       <c r="F130" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="I130" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J130" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K130" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131">
-        <v>20000031</v>
+        <v>20000026</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E131">
-        <v>20231102</v>
+        <v>20231116</v>
       </c>
       <c r="F131" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="G131" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="I131" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132">
-        <v>20000031</v>
+        <v>20000009</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E132">
-        <v>20231025</v>
+        <v>20231117</v>
       </c>
       <c r="F132" t="s">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H132" t="s">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="I132" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J132" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K132" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133">
-        <v>20000031</v>
+        <v>20000010</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E133">
-        <v>20231018</v>
+        <v>20231120</v>
       </c>
       <c r="F133" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="G133" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>296</v>
+        <v>90</v>
       </c>
       <c r="I133" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J133" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K133" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134">
-        <v>20000031</v>
+        <v>20000019</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D134" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E134">
-        <v>20230922</v>
+        <v>20231120</v>
       </c>
       <c r="F134" t="s">
-        <v>297</v>
+        <v>178</v>
       </c>
       <c r="G134" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="I134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K134" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135">
-        <v>20000032</v>
+        <v>20000024</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E135">
-        <v>20231026</v>
+        <v>20231120</v>
       </c>
       <c r="F135" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H135" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="I135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136">
-        <v>20000032</v>
+        <v>20000031</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E136">
-        <v>20231013</v>
+        <v>20231121</v>
       </c>
       <c r="F136" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H136" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="I136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J136" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137">
-        <v>20000032</v>
+        <v>20000038</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E137">
-        <v>20230922</v>
+        <v>20231121</v>
       </c>
       <c r="F137" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="G137" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H137" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I137" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J137" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K137" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138">
-        <v>20000033</v>
+        <v>20000008</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E138">
-        <v>20231130</v>
+        <v>20231122</v>
       </c>
       <c r="F138" t="s">
-        <v>305</v>
+        <v>67</v>
       </c>
       <c r="G138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" t="s">
+        <v>68</v>
+      </c>
+      <c r="I138" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" t="s">
+        <v>13</v>
+      </c>
+      <c r="K138" t="s">
         <v>14</v>
-      </c>
-      <c r="H138" t="s">
-        <v>306</v>
-      </c>
-      <c r="I138" t="s">
-        <v>22</v>
-      </c>
-      <c r="J138" t="s">
-        <v>16</v>
-      </c>
-      <c r="K138" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139">
-        <v>20000033</v>
+        <v>20000016</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E139">
-        <v>20231109</v>
+        <v>20231122</v>
       </c>
       <c r="F139" t="s">
-        <v>307</v>
+        <v>156</v>
       </c>
       <c r="G139" t="s">
+        <v>157</v>
+      </c>
+      <c r="H139" t="s">
+        <v>158</v>
+      </c>
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" t="s">
         <v>14</v>
       </c>
-      <c r="H139" t="s">
-        <v>308</v>
-      </c>
-      <c r="I139" t="s">
-        <v>22</v>
-      </c>
-      <c r="J139" t="s">
-        <v>22</v>
-      </c>
       <c r="K139" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140">
-        <v>20000033</v>
+        <v>20000023</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E140">
-        <v>20231026</v>
+        <v>20231122</v>
       </c>
       <c r="F140" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" t="s">
+        <v>209</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140" t="s">
         <v>14</v>
-      </c>
-      <c r="H140" t="s">
-        <v>310</v>
-      </c>
-      <c r="I140" t="s">
-        <v>22</v>
-      </c>
-      <c r="J140" t="s">
-        <v>16</v>
-      </c>
-      <c r="K140" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141">
-        <v>20000034</v>
+        <v>20000030</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E141">
-        <v>20231115</v>
+        <v>20231122</v>
       </c>
       <c r="F141" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="G141" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H141" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="I141" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J141" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142">
-        <v>20000034</v>
+        <v>20000015</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" t="s">
+        <v>144</v>
+      </c>
+      <c r="E142">
+        <v>20231123</v>
+      </c>
+      <c r="F142" t="s">
+        <v>145</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" t="s">
         <v>146</v>
       </c>
-      <c r="D142" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142">
-        <v>20231011</v>
-      </c>
-      <c r="F142" t="s">
-        <v>313</v>
-      </c>
-      <c r="G142" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" t="s">
-        <v>314</v>
-      </c>
       <c r="I142" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J142" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K142" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143">
-        <v>20000034</v>
+        <v>20000009</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E143">
-        <v>20230925</v>
+        <v>20231124</v>
       </c>
       <c r="F143" t="s">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="I143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J143" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144">
-        <v>20000035</v>
+        <v>20000011</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E144">
-        <v>20231110</v>
+        <v>20231124</v>
       </c>
       <c r="F144" t="s">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="G144" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H144" t="s">
-        <v>318</v>
+        <v>106</v>
       </c>
       <c r="I144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J144" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145">
-        <v>20000035</v>
+        <v>20000018</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="E145">
-        <v>20231020</v>
+        <v>20231124</v>
       </c>
       <c r="F145" t="s">
-        <v>319</v>
+        <v>166</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="I145" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J145" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K145" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146">
-        <v>20000036</v>
+        <v>20000025</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E146">
-        <v>20231110</v>
+        <v>20231124</v>
       </c>
       <c r="F146" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="G146" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H146" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="I146" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J146" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K146" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147">
-        <v>20000036</v>
+        <v>20000004</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E147">
-        <v>20231025</v>
+        <v>20231128</v>
       </c>
       <c r="F147" t="s">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H147" t="s">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="I147" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J147" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K147" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148">
-        <v>20000036</v>
+        <v>20000009</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E148">
-        <v>20231013</v>
+        <v>20231128</v>
       </c>
       <c r="F148" t="s">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="I148" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J148" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149">
-        <v>20000036</v>
+        <v>20000025</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E149">
-        <v>20230913</v>
+        <v>20231130</v>
       </c>
       <c r="F149" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="G149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149" t="s">
+        <v>224</v>
+      </c>
+      <c r="I149" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149" t="s">
+        <v>13</v>
+      </c>
+      <c r="K149" t="s">
         <v>14</v>
-      </c>
-      <c r="H149" t="s">
-        <v>328</v>
-      </c>
-      <c r="I149" t="s">
-        <v>22</v>
-      </c>
-      <c r="J149" t="s">
-        <v>22</v>
-      </c>
-      <c r="K149" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150">
-        <v>20000037</v>
+        <v>20000031</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E150">
-        <v>20231009</v>
+        <v>20231130</v>
       </c>
       <c r="F150" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H150" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="I150" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J150" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K150" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151">
-        <v>20000038</v>
+        <v>20000033</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="D151" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>20231121</v>
+        <v>20231130</v>
       </c>
       <c r="F151" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="G151" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="I151" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J151" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K151" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K151" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K151">
+      <sortCondition ref="E1:E151"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
